--- a/biology/Botanique/Bourrache/Bourrache.xlsx
+++ b/biology/Botanique/Bourrache/Bourrache.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Borago
 Le genre Borago, les Bourraches, regroupe cinq espèces de plantes herbacées de la famille des Boraginacées originaires d'Europe et d'Afrique du Nord. 
-Elles peuvent servir à la confection de tisanes. La Bourrache officinale produit aussi une huile dont les propriétés sont appréciées[1]. 
+Elles peuvent servir à la confection de tisanes. La Bourrache officinale produit aussi une huile dont les propriétés sont appréciées. 
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Moyen Âge, la bourrache était considérée comme une plante magique aphrodisiaque. La bourrache donne de l'assurance et de la hardiesse dans les entreprises amoureuses. Un rameau de bourrache fleurie permet au séducteur de remporter le succès auprès d'une femme[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Moyen Âge, la bourrache était considérée comme une plante magique aphrodisiaque. La bourrache donne de l'assurance et de la hardiesse dans les entreprises amoureuses. Un rameau de bourrache fleurie permet au séducteur de remporter le succès auprès d'une femme.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (16 oct. 2019)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (16 oct. 2019) :
 Borago longifolia Poir.
 Borago morisiana Bigazzi &amp; Ricceri
 Borago officinalis L. - Bourrache officinale, article détaillé sur la plus répandue.
@@ -579,7 +595,9 @@
           <t>Au cinéma</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans Le Retour de don Camillo (1953), Peppone, le maire du village, donne à Don Camillo une tisane de bourrache faite par sa femme pour guérir sa grippe.[réf. souhaitée]
 Dans l'episode 8, saison 5 de Breaking Bad, Marie Schrader conseille à sa sœur Skyler White de l'huile de bourrache.
@@ -613,10 +631,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Langage des fleurs
-Dans le langage des fleurs, la bourrache symbolise la brusquerie[4].
-Calendrier républicain
-La Bourrache voyait son nom attribué au 23e jour du mois de floréal du calendrier républicain[5], généralement chaque 12 mai de glace du calendrier grégorien.</t>
+          <t>Langage des fleurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le langage des fleurs, la bourrache symbolise la brusquerie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bourrache</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bourrache</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Symbolique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Calendrier républicain</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La Bourrache voyait son nom attribué au 23e jour du mois de floréal du calendrier républicain, généralement chaque 12 mai de glace du calendrier grégorien.</t>
         </is>
       </c>
     </row>
